--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\bpkp\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
   </bookViews>
@@ -54,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -100,12 +111,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -114,6 +128,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -160,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,9 +214,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,6 +249,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,20 +425,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="116.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1">
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -422,7 +446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24" customHeight="1">
+    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -430,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23.25" customHeight="1">
+    <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -438,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="21.75" customHeight="1">
+    <row r="4" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -446,23 +470,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="21" customHeight="1">
+    <row r="5" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24.75" customHeight="1">
+    <row r="6" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="21.75" customHeight="1">
+    <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -470,7 +494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="21.75" customHeight="1">
+    <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -478,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -486,11 +510,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="23.25" customHeight="1">
+    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -500,24 +524,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\bpkp\trunk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Tulisan/ huruf kurang jelas</t>
   </si>
@@ -54,13 +49,25 @@
   </si>
   <si>
     <t>Ulasan</t>
+  </si>
+  <si>
+    <t>Sudah Diganti</t>
+  </si>
+  <si>
+    <t>Maaf Aplikasi dari awal tidak di desain untuk ini</t>
+  </si>
+  <si>
+    <t>visi misinya terlalu panjang tidak bisa di buat running text</t>
+  </si>
+  <si>
+    <t>setiap yang menulis kritik dan saran akan dikirim ke email admin dan bisa di edit di data.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,10 +221,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,7 +255,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,20 +430,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="116.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -446,76 +452,103 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23.25" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -524,24 +557,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
